--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Belgelerim\finartzfingerprint\FingerPrint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Belgelerim\finartzfingerprint\FingerPrint\out\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C46F2D5-CD56-48D2-BC54-F806396F1448}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E02033F-69D3-4204-9529-8ED1880E9D80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{1F5A0D05-5E1D-4137-A0D1-15D38892DB27}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{1F5A0D05-5E1D-4137-A0D1-15D38892DB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="16">
   <si>
     <t>ADI</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>PAZAR</t>
+  </si>
+  <si>
+    <t>AKSOY .</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
   <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1">
         <v>43648</v>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Belgelerim\finartzfingerprint\FingerPrint\out\artifacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Belgelerim\finartzfingerprint\FingerPrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E02033F-69D3-4204-9529-8ED1880E9D80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A6759F-ED6C-4ECD-B581-337670661F26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{1F5A0D05-5E1D-4137-A0D1-15D38892DB27}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{1F5A0D05-5E1D-4137-A0D1-15D38892DB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="15">
   <si>
     <t>ADI</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>CIKIS</t>
-  </si>
-  <si>
-    <t>İSA YAKUP</t>
-  </si>
-  <si>
-    <t>AKSOY</t>
   </si>
   <si>
     <t>PAZARTESI</t>
@@ -77,7 +71,10 @@
     <t>PAZAR</t>
   </si>
   <si>
-    <t>AKSOY .</t>
+    <t>John</t>
+  </si>
+  <si>
+    <t>DOE</t>
   </si>
 </sst>
 </file>
@@ -434,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EB42AD-4F74-4133-A840-D039BBCF4A36}">
   <dimension ref="A1:G235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,16 +459,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>43647</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2">
         <v>0.3888888888888889</v>
@@ -482,16 +479,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>43647</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2">
         <v>0.40972222222222227</v>
@@ -502,16 +499,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>43647</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2">
         <v>0.4368055555555555</v>
@@ -523,16 +520,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>43647</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2">
         <v>0.47638888888888892</v>
@@ -543,16 +540,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>43647</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2">
         <v>0.53611111111111109</v>
@@ -563,16 +560,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>43647</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2">
         <v>0.58124999999999993</v>
@@ -583,16 +580,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>43647</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2">
         <v>0.6118055555555556</v>
@@ -603,16 +600,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>43647</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2">
         <v>0.65</v>
@@ -623,16 +620,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>43647</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2">
         <v>0.68263888888888891</v>
@@ -643,16 +640,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <v>43647</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2">
         <v>0.72986111111111107</v>
@@ -663,16 +660,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>43648</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2">
         <v>0.3756944444444445</v>
@@ -683,16 +680,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>43648</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2">
         <v>0.38750000000000001</v>
@@ -703,16 +700,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <v>43648</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14" s="2">
         <v>0.41875000000000001</v>
@@ -723,16 +720,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>43648</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2">
         <v>0.44097222222222227</v>
@@ -743,16 +740,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>43648</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="2">
         <v>0.4604166666666667</v>
@@ -763,16 +760,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>43648</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" s="2">
         <v>0.54027777777777775</v>
@@ -783,16 +780,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
         <v>43648</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" s="2">
         <v>0.57986111111111105</v>
@@ -803,16 +800,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <v>43648</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2">
         <v>0.63680555555555551</v>
@@ -823,16 +820,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1">
         <v>43648</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2">
         <v>0.67499999999999993</v>
@@ -843,16 +840,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1">
         <v>43648</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" s="2">
         <v>0.71319444444444446</v>
@@ -863,16 +860,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>43648</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" s="2">
         <v>0.74097222222222225</v>
@@ -883,16 +880,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1">
         <v>43649</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2">
         <v>0.37916666666666665</v>
@@ -903,16 +900,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1">
         <v>43649</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="2">
         <v>0.38750000000000001</v>
@@ -923,16 +920,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <v>43649</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="2">
         <v>0.44444444444444442</v>
@@ -943,16 +940,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1">
         <v>43649</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2">
         <v>0.46111111111111108</v>
@@ -963,16 +960,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1">
         <v>43649</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="2">
         <v>0.48819444444444443</v>
@@ -983,16 +980,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1">
         <v>43649</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="2">
         <v>0.52638888888888891</v>
@@ -1003,16 +1000,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1">
         <v>43649</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" s="2">
         <v>0.5493055555555556</v>
@@ -1023,16 +1020,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1">
         <v>43650</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2">
         <v>0.57361111111111118</v>
@@ -1043,16 +1040,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <v>43650</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2">
         <v>0.58680555555555558</v>
@@ -1063,16 +1060,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1">
         <v>43650</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2">
         <v>0.59930555555555554</v>
@@ -1083,16 +1080,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1">
         <v>43650</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2">
         <v>0.625</v>
@@ -1103,16 +1100,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1">
         <v>43650</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2">
         <v>0.64861111111111114</v>
@@ -1123,16 +1120,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1">
         <v>43650</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2">
         <v>0.73888888888888893</v>
@@ -1143,16 +1140,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1">
         <v>43650</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2">
         <v>0.75069444444444444</v>
@@ -1160,16 +1157,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1">
         <v>43651</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2">
         <v>0.41805555555555557</v>
@@ -1180,16 +1177,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1">
         <v>43651</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E38" s="2">
         <v>0.43472222222222223</v>
@@ -1200,16 +1197,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C39" s="1">
         <v>43651</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E39" s="2">
         <v>0.47083333333333338</v>
@@ -1220,16 +1217,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C40" s="1">
         <v>43651</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E40" s="2">
         <v>0.5493055555555556</v>
@@ -1240,16 +1237,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C41" s="1">
         <v>43651</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E41" s="2">
         <v>0.61041666666666672</v>
@@ -1260,16 +1257,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C42" s="1">
         <v>43651</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E42" s="2">
         <v>0.64930555555555558</v>
@@ -1280,16 +1277,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1">
         <v>43651</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E43" s="2">
         <v>0.67847222222222225</v>
@@ -1300,16 +1297,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C44" s="1">
         <v>43651</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E44" s="2">
         <v>0.7416666666666667</v>
@@ -1320,44 +1317,44 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C45" s="1">
         <v>43652</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C46" s="1">
         <v>43653</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C47" s="1">
         <v>43654</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E47" s="2">
         <v>0.37916666666666665</v>
@@ -1368,16 +1365,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C48" s="1">
         <v>43654</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E48" s="2">
         <v>0.3979166666666667</v>
@@ -1388,16 +1385,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C49" s="1">
         <v>43654</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E49" s="2">
         <v>0.43541666666666662</v>
@@ -1408,16 +1405,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C50" s="1">
         <v>43654</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E50" s="2">
         <v>0.46388888888888885</v>
@@ -1428,16 +1425,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C51" s="1">
         <v>43654</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E51" s="2">
         <v>0.49305555555555558</v>
@@ -1448,16 +1445,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C52" s="1">
         <v>43654</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E52" s="2">
         <v>0.52500000000000002</v>
@@ -1468,16 +1465,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C53" s="1">
         <v>43654</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E53" s="2">
         <v>0.56597222222222221</v>
@@ -1488,16 +1485,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C54" s="1">
         <v>43654</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E54" s="2">
         <v>0.62638888888888888</v>
@@ -1508,16 +1505,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C55" s="1">
         <v>43654</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E55" s="2">
         <v>0.66319444444444442</v>
@@ -1528,16 +1525,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C56" s="1">
         <v>43654</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E56" s="2">
         <v>0.71597222222222223</v>
@@ -1548,16 +1545,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C57" s="1">
         <v>43655</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E57" s="2">
         <v>0.37638888888888888</v>
@@ -1568,16 +1565,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C58" s="1">
         <v>43655</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E58" s="2">
         <v>0.39444444444444443</v>
@@ -1588,16 +1585,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C59" s="1">
         <v>43655</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E59" s="2">
         <v>0.4291666666666667</v>
@@ -1608,16 +1605,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C60" s="1">
         <v>43655</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E60" s="2">
         <v>0.45833333333333331</v>
@@ -1628,16 +1625,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C61" s="1">
         <v>43655</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E61" s="2">
         <v>0.52777777777777779</v>
@@ -1648,16 +1645,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C62" s="1">
         <v>43655</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E62" s="2">
         <v>0.55208333333333337</v>
@@ -1668,16 +1665,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C63" s="1">
         <v>43655</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E63" s="2">
         <v>0.59652777777777777</v>
@@ -1688,16 +1685,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C64" s="1">
         <v>43655</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E64" s="2">
         <v>0.6479166666666667</v>
@@ -1708,16 +1705,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C65" s="1">
         <v>43655</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E65" s="2">
         <v>0.68055555555555547</v>
@@ -1728,16 +1725,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C66" s="1">
         <v>43655</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E66" s="2">
         <v>0.71736111111111101</v>
@@ -1748,16 +1745,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C67" s="1">
         <v>43655</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E67" s="2">
         <v>0.74652777777777779</v>
@@ -1765,16 +1762,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C68" s="1">
         <v>43656</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E68" s="2">
         <v>0.375</v>
@@ -1785,16 +1782,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C69" s="1">
         <v>43656</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E69" s="2">
         <v>0.38750000000000001</v>
@@ -1805,16 +1802,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C70" s="1">
         <v>43656</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E70" s="2">
         <v>0.4152777777777778</v>
@@ -1825,16 +1822,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C71" s="1">
         <v>43656</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E71" s="2">
         <v>0.45208333333333334</v>
@@ -1845,16 +1842,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C72" s="1">
         <v>43656</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E72" s="2">
         <v>0.47986111111111113</v>
@@ -1865,16 +1862,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C73" s="1">
         <v>43656</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E73" s="2">
         <v>0.51666666666666672</v>
@@ -1885,16 +1882,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C74" s="1">
         <v>43656</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E74" s="2">
         <v>0.5541666666666667</v>
@@ -1905,16 +1902,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C75" s="1">
         <v>43656</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E75" s="2">
         <v>0.60555555555555551</v>
@@ -1925,16 +1922,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C76" s="1">
         <v>43656</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E76" s="2">
         <v>0.63680555555555551</v>
@@ -1945,16 +1942,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C77" s="1">
         <v>43656</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E77" s="2">
         <v>0.69027777777777777</v>
@@ -1965,16 +1962,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C78" s="1">
         <v>43656</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E78" s="2">
         <v>0.73819444444444438</v>
@@ -1985,16 +1982,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C79" s="1">
         <v>43656</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E79" s="2">
         <v>0.74930555555555556</v>
@@ -2002,16 +1999,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C80" s="1">
         <v>43657</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E80" s="2">
         <v>0.40069444444444446</v>
@@ -2022,16 +2019,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C81" s="1">
         <v>43657</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E81" s="2">
         <v>0.41319444444444442</v>
@@ -2042,16 +2039,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C82" s="1">
         <v>43657</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E82" s="2">
         <v>0.43958333333333338</v>
@@ -2062,16 +2059,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C83" s="1">
         <v>43657</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E83" s="2">
         <v>0.4770833333333333</v>
@@ -2082,16 +2079,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C84" s="1">
         <v>43657</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E84" s="2">
         <v>0.50208333333333333</v>
@@ -2102,16 +2099,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1">
         <v>43657</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E85" s="2">
         <v>0.55347222222222225</v>
@@ -2122,16 +2119,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C86" s="1">
         <v>43657</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E86" s="2">
         <v>0.59722222222222221</v>
@@ -2142,16 +2139,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C87" s="1">
         <v>43657</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E87" s="2">
         <v>0.65625</v>
@@ -2162,16 +2159,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C88" s="1">
         <v>43657</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E88" s="2">
         <v>0.70416666666666661</v>
@@ -2182,16 +2179,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C89" s="1">
         <v>43657</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E89" s="2">
         <v>0.74444444444444446</v>
@@ -2202,16 +2199,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C90" s="1">
         <v>43658</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E90" s="2">
         <v>0.37708333333333338</v>
@@ -2222,16 +2219,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C91" s="1">
         <v>43658</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E91" s="2">
         <v>0.38958333333333334</v>
@@ -2242,16 +2239,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C92" s="1">
         <v>43658</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E92" s="2">
         <v>0.41666666666666669</v>
@@ -2262,16 +2259,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C93" s="1">
         <v>43658</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E93" s="2">
         <v>0.46111111111111108</v>
@@ -2282,16 +2279,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C94" s="1">
         <v>43658</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E94" s="2">
         <v>0.48819444444444443</v>
@@ -2302,16 +2299,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C95" s="1">
         <v>43658</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E95" s="2">
         <v>0.52777777777777779</v>
@@ -2322,16 +2319,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C96" s="1">
         <v>43658</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E96" s="2">
         <v>0.56527777777777777</v>
@@ -2342,16 +2339,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C97" s="1">
         <v>43658</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E97" s="2">
         <v>0.60625000000000007</v>
@@ -2362,16 +2359,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C98" s="1">
         <v>43658</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E98" s="2">
         <v>0.65208333333333335</v>
@@ -2382,16 +2379,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C99" s="1">
         <v>43658</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E99" s="2">
         <v>0.68958333333333333</v>
@@ -2402,58 +2399,58 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1">
         <v>43659</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C101" s="1">
         <v>43660</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C102" s="1">
         <v>43661</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C103" s="1">
         <v>43662</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E103" s="2">
         <v>0.37847222222222227</v>
@@ -2464,16 +2461,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C104" s="1">
         <v>43662</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E104" s="2">
         <v>0.39652777777777781</v>
@@ -2484,16 +2481,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C105" s="1">
         <v>43662</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E105" s="2">
         <v>0.4465277777777778</v>
@@ -2504,16 +2501,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C106" s="1">
         <v>43662</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E106" s="2">
         <v>0.46249999999999997</v>
@@ -2524,16 +2521,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C107" s="1">
         <v>43662</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E107" s="2">
         <v>0.49861111111111112</v>
@@ -2544,16 +2541,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C108" s="1">
         <v>43662</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E108" s="2">
         <v>0.5708333333333333</v>
@@ -2564,16 +2561,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C109" s="1">
         <v>43662</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E109" s="2">
         <v>0.61249999999999993</v>
@@ -2584,16 +2581,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C110" s="1">
         <v>43662</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E110" s="2">
         <v>0.64652777777777781</v>
@@ -2604,16 +2601,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C111" s="1">
         <v>43662</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E111" s="2">
         <v>0.69444444444444453</v>
@@ -2624,16 +2621,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C112" s="1">
         <v>43662</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E112" s="2">
         <v>0.7319444444444444</v>
@@ -2644,16 +2641,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C113" s="1">
         <v>43662</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E113" s="2">
         <v>0.75069444444444444</v>
@@ -2661,16 +2658,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C114" s="1">
         <v>43663</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E114" s="2">
         <v>0.37638888888888888</v>
@@ -2681,16 +2678,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C115" s="1">
         <v>43663</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E115" s="2">
         <v>0.39166666666666666</v>
@@ -2701,16 +2698,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C116" s="1">
         <v>43663</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E116" s="2">
         <v>0.4368055555555555</v>
@@ -2721,16 +2718,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C117" s="1">
         <v>43663</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E117" s="2">
         <v>0.48472222222222222</v>
@@ -2741,16 +2738,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C118" s="1">
         <v>43663</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E118" s="2">
         <v>0.52500000000000002</v>
@@ -2761,16 +2758,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C119" s="1">
         <v>43663</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E119" s="2">
         <v>0.57013888888888886</v>
@@ -2781,16 +2778,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C120" s="1">
         <v>43663</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E120" s="2">
         <v>0.6333333333333333</v>
@@ -2801,16 +2798,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C121" s="1">
         <v>43663</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E121" s="2">
         <v>0.7006944444444444</v>
@@ -2821,16 +2818,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C122" s="1">
         <v>43664</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E122" s="2">
         <v>0.37638888888888888</v>
@@ -2841,16 +2838,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C123" s="1">
         <v>43664</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E123" s="2">
         <v>0.39305555555555555</v>
@@ -2861,16 +2858,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C124" s="1">
         <v>43664</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E124" s="2">
         <v>0.43124999999999997</v>
@@ -2881,16 +2878,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C125" s="1">
         <v>43664</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E125" s="2">
         <v>0.46597222222222223</v>
@@ -2901,16 +2898,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C126" s="1">
         <v>43664</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E126" s="2">
         <v>0.50624999999999998</v>
@@ -2921,16 +2918,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C127" s="1">
         <v>43664</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E127" s="2">
         <v>0.54722222222222217</v>
@@ -2941,16 +2938,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C128" s="1">
         <v>43664</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E128" s="2">
         <v>0.60069444444444442</v>
@@ -2961,16 +2958,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C129" s="1">
         <v>43664</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E129" s="2">
         <v>0.63402777777777775</v>
@@ -2981,16 +2978,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C130" s="1">
         <v>43664</v>
       </c>
       <c r="D130" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E130" s="2">
         <v>0.6430555555555556</v>
@@ -3001,16 +2998,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C131" s="1">
         <v>43664</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E131" s="2">
         <v>0.69305555555555554</v>
@@ -3021,16 +3018,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C132" s="1">
         <v>43664</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E132" s="2">
         <v>0.74375000000000002</v>
@@ -3041,16 +3038,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C133" s="1">
         <v>43664</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E133" s="2">
         <v>0.74791666666666667</v>
@@ -3058,16 +3055,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C134" s="1">
         <v>43665</v>
       </c>
       <c r="D134" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E134" s="2">
         <v>0.37638888888888888</v>
@@ -3078,16 +3075,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C135" s="1">
         <v>43665</v>
       </c>
       <c r="D135" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E135" s="2">
         <v>0.39374999999999999</v>
@@ -3098,16 +3095,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C136" s="1">
         <v>43665</v>
       </c>
       <c r="D136" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E136" s="2">
         <v>0.42777777777777781</v>
@@ -3118,16 +3115,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C137" s="1">
         <v>43665</v>
       </c>
       <c r="D137" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E137" s="2">
         <v>0.45277777777777778</v>
@@ -3138,16 +3135,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C138" s="1">
         <v>43665</v>
       </c>
       <c r="D138" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E138" s="2">
         <v>0.47361111111111115</v>
@@ -3158,16 +3155,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C139" s="1">
         <v>43665</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E139" s="2">
         <v>0.5229166666666667</v>
@@ -3178,16 +3175,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C140" s="1">
         <v>43665</v>
       </c>
       <c r="D140" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E140" s="2">
         <v>0.56666666666666665</v>
@@ -3198,16 +3195,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C141" s="1">
         <v>43665</v>
       </c>
       <c r="D141" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E141" s="2">
         <v>0.59236111111111112</v>
@@ -3218,16 +3215,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C142" s="1">
         <v>43665</v>
       </c>
       <c r="D142" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E142" s="2">
         <v>0.62222222222222223</v>
@@ -3238,16 +3235,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C143" s="1">
         <v>43665</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E143" s="2">
         <v>0.70486111111111116</v>
@@ -3258,16 +3255,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C144" s="1">
         <v>43665</v>
       </c>
       <c r="D144" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E144" s="2">
         <v>0.73819444444444438</v>
@@ -3278,16 +3275,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C145" s="1">
         <v>43665</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E145" s="2">
         <v>0.74652777777777779</v>
@@ -3295,44 +3292,44 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C146" s="1">
         <v>43666</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C147" s="1">
         <v>43667</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C148" s="1">
         <v>43668</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E148" s="2">
         <v>0.38958333333333334</v>
@@ -3343,16 +3340,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C149" s="1">
         <v>43668</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E149" s="2">
         <v>0.4055555555555555</v>
@@ -3363,16 +3360,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C150" s="1">
         <v>43668</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E150" s="2">
         <v>0.43611111111111112</v>
@@ -3383,16 +3380,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C151" s="1">
         <v>43668</v>
       </c>
       <c r="D151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E151" s="2">
         <v>0.48055555555555557</v>
@@ -3403,16 +3400,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C152" s="1">
         <v>43668</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E152" s="2">
         <v>0.5</v>
@@ -3423,16 +3420,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C153" s="1">
         <v>43668</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E153" s="2">
         <v>0.61527777777777781</v>
@@ -3443,16 +3440,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C154" s="1">
         <v>43668</v>
       </c>
       <c r="D154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E154" s="2">
         <v>0.66805555555555562</v>
@@ -3463,16 +3460,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C155" s="1">
         <v>43668</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E155" s="2">
         <v>0.69305555555555554</v>
@@ -3483,16 +3480,16 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C156" s="1">
         <v>43668</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E156" s="2">
         <v>0.74861111111111101</v>
@@ -3500,16 +3497,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C157" s="1">
         <v>43669</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E157" s="2">
         <v>0.38125000000000003</v>
@@ -3520,16 +3517,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C158" s="1">
         <v>43669</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E158" s="2">
         <v>0.40208333333333335</v>
@@ -3540,16 +3537,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C159" s="1">
         <v>43669</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E159" s="2">
         <v>0.43333333333333335</v>
@@ -3560,16 +3557,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C160" s="1">
         <v>43669</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E160" s="2">
         <v>0.47569444444444442</v>
@@ -3580,16 +3577,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C161" s="1">
         <v>43669</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E161" s="2">
         <v>0.54652777777777783</v>
@@ -3600,16 +3597,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C162" s="1">
         <v>43669</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E162" s="2">
         <v>0.63611111111111118</v>
@@ -3620,16 +3617,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C163" s="1">
         <v>43669</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E163" s="2">
         <v>0.66319444444444442</v>
@@ -3640,16 +3637,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C164" s="1">
         <v>43669</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E164" s="2">
         <v>0.71736111111111101</v>
@@ -3660,16 +3657,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C165" s="1">
         <v>43670</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E165" s="2">
         <v>0.39583333333333331</v>
@@ -3680,16 +3677,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C166" s="1">
         <v>43670</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E166" s="2">
         <v>0.41875000000000001</v>
@@ -3700,16 +3697,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C167" s="1">
         <v>43670</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E167" s="2">
         <v>0.46111111111111108</v>
@@ -3720,16 +3717,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C168" s="1">
         <v>43670</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E168" s="2">
         <v>0.49305555555555558</v>
@@ -3740,16 +3737,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C169" s="1">
         <v>43670</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E169" s="2">
         <v>0.53055555555555556</v>
@@ -3760,16 +3757,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C170" s="1">
         <v>43670</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E170" s="2">
         <v>0.58402777777777781</v>
@@ -3780,16 +3777,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C171" s="1">
         <v>43670</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E171" s="2">
         <v>0.62222222222222223</v>
@@ -3800,16 +3797,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C172" s="1">
         <v>43670</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E172" s="2">
         <v>0.66736111111111107</v>
@@ -3820,16 +3817,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C173" s="1">
         <v>43670</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E173" s="2">
         <v>0.67083333333333339</v>
@@ -3837,30 +3834,30 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C174" s="1">
         <v>43671</v>
       </c>
       <c r="D174" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C175" s="1">
         <v>43672</v>
       </c>
       <c r="D175" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E175" s="2">
         <v>0.38263888888888892</v>
@@ -3871,16 +3868,16 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C176" s="1">
         <v>43672</v>
       </c>
       <c r="D176" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E176" s="2">
         <v>0.40069444444444446</v>
@@ -3891,16 +3888,16 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C177" s="1">
         <v>43672</v>
       </c>
       <c r="D177" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E177" s="2">
         <v>0.44305555555555554</v>
@@ -3911,16 +3908,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C178" s="1">
         <v>43672</v>
       </c>
       <c r="D178" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E178" s="2">
         <v>0.47500000000000003</v>
@@ -3931,16 +3928,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C179" s="1">
         <v>43672</v>
       </c>
       <c r="D179" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E179" s="2">
         <v>0.52222222222222225</v>
@@ -3951,16 +3948,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C180" s="1">
         <v>43672</v>
       </c>
       <c r="D180" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E180" s="2">
         <v>0.60069444444444442</v>
@@ -3971,16 +3968,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C181" s="1">
         <v>43672</v>
       </c>
       <c r="D181" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E181" s="2">
         <v>0.67847222222222225</v>
@@ -3991,44 +3988,44 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C182" s="1">
         <v>43673</v>
       </c>
       <c r="D182" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C183" s="1">
         <v>43674</v>
       </c>
       <c r="D183" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C184" s="1">
         <v>43675</v>
       </c>
       <c r="D184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E184" s="2">
         <v>0.3756944444444445</v>
@@ -4039,16 +4036,16 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C185" s="1">
         <v>43675</v>
       </c>
       <c r="D185" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E185" s="2">
         <v>0.4069444444444445</v>
@@ -4059,16 +4056,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C186" s="1">
         <v>43675</v>
       </c>
       <c r="D186" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E186" s="2">
         <v>0.4604166666666667</v>
@@ -4079,16 +4076,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C187" s="1">
         <v>43675</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E187" s="2">
         <v>0.49027777777777781</v>
@@ -4099,16 +4096,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C188" s="1">
         <v>43675</v>
       </c>
       <c r="D188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E188" s="2">
         <v>0.5395833333333333</v>
@@ -4119,16 +4116,16 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C189" s="1">
         <v>43675</v>
       </c>
       <c r="D189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E189" s="2">
         <v>0.57986111111111105</v>
@@ -4139,16 +4136,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C190" s="1">
         <v>43675</v>
       </c>
       <c r="D190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E190" s="2">
         <v>0.64374999999999993</v>
@@ -4159,16 +4156,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C191" s="1">
         <v>43675</v>
       </c>
       <c r="D191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E191" s="2">
         <v>0.69791666666666663</v>
@@ -4179,16 +4176,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C192" s="1">
         <v>43675</v>
       </c>
       <c r="D192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E192" s="2">
         <v>0.75624999999999998</v>
@@ -4199,16 +4196,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C193" s="1">
         <v>43676</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E193" s="2">
         <v>0.3743055555555555</v>
@@ -4219,16 +4216,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C194" s="1">
         <v>43676</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E194" s="2">
         <v>0.38958333333333334</v>
@@ -4239,16 +4236,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C195" s="1">
         <v>43676</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E195" s="2">
         <v>0.43124999999999997</v>
@@ -4259,16 +4256,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C196" s="1">
         <v>43676</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E196" s="2">
         <v>0.45902777777777781</v>
@@ -4279,16 +4276,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C197" s="1">
         <v>43676</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E197" s="2">
         <v>0.53819444444444442</v>
@@ -4299,16 +4296,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C198" s="1">
         <v>43676</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E198" s="2">
         <v>0.59722222222222221</v>
@@ -4319,16 +4316,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C199" s="1">
         <v>43676</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E199" s="2">
         <v>0.66111111111111109</v>
@@ -4339,16 +4336,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C200" s="1">
         <v>43676</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E200" s="2">
         <v>0.68680555555555556</v>
@@ -4359,16 +4356,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C201" s="1">
         <v>43676</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E201" s="2">
         <v>0.7368055555555556</v>
@@ -4379,30 +4376,30 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C202" s="1">
         <v>43677</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C203" s="1">
         <v>43678</v>
       </c>
       <c r="D203" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E203" s="2">
         <v>0.41319444444444442</v>
@@ -4413,16 +4410,16 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C204" s="1">
         <v>43678</v>
       </c>
       <c r="D204" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E204" s="2">
         <v>0.43055555555555558</v>
@@ -4433,16 +4430,16 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C205" s="1">
         <v>43678</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E205" s="2">
         <v>0.46249999999999997</v>
@@ -4450,16 +4447,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C206" s="1">
         <v>43679</v>
       </c>
       <c r="D206" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E206" s="2">
         <v>0.38611111111111113</v>
@@ -4470,408 +4467,408 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C207" s="1">
         <v>43680</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C208" s="1">
         <v>43681</v>
       </c>
       <c r="D208" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C209" s="1">
         <v>43682</v>
       </c>
       <c r="D209" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C210" s="1">
         <v>43683</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C211" s="1">
         <v>43684</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C212" s="1">
         <v>43685</v>
       </c>
       <c r="D212" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C213" s="1">
         <v>43686</v>
       </c>
       <c r="D213" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C214" s="1">
         <v>43687</v>
       </c>
       <c r="D214" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C215" s="1">
         <v>43688</v>
       </c>
       <c r="D215" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C216" s="1">
         <v>43689</v>
       </c>
       <c r="D216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C217" s="1">
         <v>43690</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C218" s="1">
         <v>43691</v>
       </c>
       <c r="D218" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C219" s="1">
         <v>43692</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C220" s="1">
         <v>43693</v>
       </c>
       <c r="D220" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C221" s="1">
         <v>43694</v>
       </c>
       <c r="D221" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C222" s="1">
         <v>43695</v>
       </c>
       <c r="D222" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C223" s="1">
         <v>43696</v>
       </c>
       <c r="D223" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C224" s="1">
         <v>43697</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C225" s="1">
         <v>43698</v>
       </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C226" s="1">
         <v>43699</v>
       </c>
       <c r="D226" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C227" s="1">
         <v>43700</v>
       </c>
       <c r="D227" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C228" s="1">
         <v>43701</v>
       </c>
       <c r="D228" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C229" s="1">
         <v>43702</v>
       </c>
       <c r="D229" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C230" s="1">
         <v>43703</v>
       </c>
       <c r="D230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C231" s="1">
         <v>43704</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C232" s="1">
         <v>43705</v>
       </c>
       <c r="D232" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C233" s="1">
         <v>43706</v>
       </c>
       <c r="D233" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C234" s="1">
         <v>43707</v>
       </c>
       <c r="D234" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C235" s="1">
         <v>43708</v>
       </c>
       <c r="D235" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Belgelerim\finartzfingerprint\FingerPrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A6759F-ED6C-4ECD-B581-337670661F26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C46F2D5-CD56-48D2-BC54-F806396F1448}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{1F5A0D05-5E1D-4137-A0D1-15D38892DB27}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{1F5A0D05-5E1D-4137-A0D1-15D38892DB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,6 +50,12 @@
     <t>CIKIS</t>
   </si>
   <si>
+    <t>İSA YAKUP</t>
+  </si>
+  <si>
+    <t>AKSOY</t>
+  </si>
+  <si>
     <t>PAZARTESI</t>
   </si>
   <si>
@@ -69,12 +75,6 @@
   </si>
   <si>
     <t>PAZAR</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>DOE</t>
   </si>
 </sst>
 </file>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EB42AD-4F74-4133-A840-D039BBCF4A36}">
   <dimension ref="A1:G235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,16 +459,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>43647</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>0.3888888888888889</v>
@@ -479,16 +479,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>43647</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>0.40972222222222227</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>43647</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
         <v>0.4368055555555555</v>
@@ -520,16 +520,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>43647</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2">
         <v>0.47638888888888892</v>
@@ -540,16 +540,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>43647</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2">
         <v>0.53611111111111109</v>
@@ -560,16 +560,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>43647</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2">
         <v>0.58124999999999993</v>
@@ -580,16 +580,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>43647</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2">
         <v>0.6118055555555556</v>
@@ -600,16 +600,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>43647</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2">
         <v>0.65</v>
@@ -620,16 +620,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>43647</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2">
         <v>0.68263888888888891</v>
@@ -640,16 +640,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>43647</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2">
         <v>0.72986111111111107</v>
@@ -660,16 +660,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1">
         <v>43648</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2">
         <v>0.3756944444444445</v>
@@ -680,16 +680,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
         <v>43648</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2">
         <v>0.38750000000000001</v>
@@ -700,16 +700,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
         <v>43648</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2">
         <v>0.41875000000000001</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1">
         <v>43648</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2">
         <v>0.44097222222222227</v>
@@ -740,16 +740,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>43648</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2">
         <v>0.4604166666666667</v>
@@ -760,16 +760,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1">
         <v>43648</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2">
         <v>0.54027777777777775</v>
@@ -780,16 +780,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1">
         <v>43648</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2">
         <v>0.57986111111111105</v>
@@ -800,16 +800,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1">
         <v>43648</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2">
         <v>0.63680555555555551</v>
@@ -820,16 +820,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1">
         <v>43648</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2">
         <v>0.67499999999999993</v>
@@ -840,16 +840,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1">
         <v>43648</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2">
         <v>0.71319444444444446</v>
@@ -860,16 +860,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1">
         <v>43648</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22" s="2">
         <v>0.74097222222222225</v>
@@ -880,16 +880,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1">
         <v>43649</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2">
         <v>0.37916666666666665</v>
@@ -900,16 +900,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1">
         <v>43649</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2">
         <v>0.38750000000000001</v>
@@ -920,16 +920,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1">
         <v>43649</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2">
         <v>0.44444444444444442</v>
@@ -940,16 +940,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1">
         <v>43649</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2">
         <v>0.46111111111111108</v>
@@ -960,16 +960,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1">
         <v>43649</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2">
         <v>0.48819444444444443</v>
@@ -980,16 +980,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1">
         <v>43649</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2">
         <v>0.52638888888888891</v>
@@ -1000,16 +1000,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1">
         <v>43649</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2">
         <v>0.5493055555555556</v>
@@ -1020,16 +1020,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1">
         <v>43650</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E30" s="2">
         <v>0.57361111111111118</v>
@@ -1040,16 +1040,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1">
         <v>43650</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E31" s="2">
         <v>0.58680555555555558</v>
@@ -1060,16 +1060,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1">
         <v>43650</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E32" s="2">
         <v>0.59930555555555554</v>
@@ -1080,16 +1080,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1">
         <v>43650</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E33" s="2">
         <v>0.625</v>
@@ -1100,16 +1100,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1">
         <v>43650</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E34" s="2">
         <v>0.64861111111111114</v>
@@ -1120,16 +1120,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1">
         <v>43650</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E35" s="2">
         <v>0.73888888888888893</v>
@@ -1140,16 +1140,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1">
         <v>43650</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E36" s="2">
         <v>0.75069444444444444</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1">
         <v>43651</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E37" s="2">
         <v>0.41805555555555557</v>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1">
         <v>43651</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E38" s="2">
         <v>0.43472222222222223</v>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1">
         <v>43651</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E39" s="2">
         <v>0.47083333333333338</v>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1">
         <v>43651</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E40" s="2">
         <v>0.5493055555555556</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1">
         <v>43651</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E41" s="2">
         <v>0.61041666666666672</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1">
         <v>43651</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E42" s="2">
         <v>0.64930555555555558</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1">
         <v>43651</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E43" s="2">
         <v>0.67847222222222225</v>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1">
         <v>43651</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E44" s="2">
         <v>0.7416666666666667</v>
@@ -1317,44 +1317,44 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1">
         <v>43652</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C46" s="1">
         <v>43653</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1">
         <v>43654</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E47" s="2">
         <v>0.37916666666666665</v>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1">
         <v>43654</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E48" s="2">
         <v>0.3979166666666667</v>
@@ -1385,16 +1385,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C49" s="1">
         <v>43654</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E49" s="2">
         <v>0.43541666666666662</v>
@@ -1405,16 +1405,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1">
         <v>43654</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E50" s="2">
         <v>0.46388888888888885</v>
@@ -1425,16 +1425,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C51" s="1">
         <v>43654</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E51" s="2">
         <v>0.49305555555555558</v>
@@ -1445,16 +1445,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C52" s="1">
         <v>43654</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E52" s="2">
         <v>0.52500000000000002</v>
@@ -1465,16 +1465,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C53" s="1">
         <v>43654</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E53" s="2">
         <v>0.56597222222222221</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1">
         <v>43654</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E54" s="2">
         <v>0.62638888888888888</v>
@@ -1505,16 +1505,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C55" s="1">
         <v>43654</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E55" s="2">
         <v>0.66319444444444442</v>
@@ -1525,16 +1525,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C56" s="1">
         <v>43654</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E56" s="2">
         <v>0.71597222222222223</v>
@@ -1545,16 +1545,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C57" s="1">
         <v>43655</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E57" s="2">
         <v>0.37638888888888888</v>
@@ -1565,16 +1565,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C58" s="1">
         <v>43655</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E58" s="2">
         <v>0.39444444444444443</v>
@@ -1585,16 +1585,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C59" s="1">
         <v>43655</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E59" s="2">
         <v>0.4291666666666667</v>
@@ -1605,16 +1605,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C60" s="1">
         <v>43655</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E60" s="2">
         <v>0.45833333333333331</v>
@@ -1625,16 +1625,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C61" s="1">
         <v>43655</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E61" s="2">
         <v>0.52777777777777779</v>
@@ -1645,16 +1645,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C62" s="1">
         <v>43655</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E62" s="2">
         <v>0.55208333333333337</v>
@@ -1665,16 +1665,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1">
         <v>43655</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E63" s="2">
         <v>0.59652777777777777</v>
@@ -1685,16 +1685,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C64" s="1">
         <v>43655</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E64" s="2">
         <v>0.6479166666666667</v>
@@ -1705,16 +1705,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C65" s="1">
         <v>43655</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E65" s="2">
         <v>0.68055555555555547</v>
@@ -1725,16 +1725,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C66" s="1">
         <v>43655</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E66" s="2">
         <v>0.71736111111111101</v>
@@ -1745,16 +1745,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C67" s="1">
         <v>43655</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E67" s="2">
         <v>0.74652777777777779</v>
@@ -1762,16 +1762,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C68" s="1">
         <v>43656</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E68" s="2">
         <v>0.375</v>
@@ -1782,16 +1782,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C69" s="1">
         <v>43656</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E69" s="2">
         <v>0.38750000000000001</v>
@@ -1802,16 +1802,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C70" s="1">
         <v>43656</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E70" s="2">
         <v>0.4152777777777778</v>
@@ -1822,16 +1822,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C71" s="1">
         <v>43656</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E71" s="2">
         <v>0.45208333333333334</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C72" s="1">
         <v>43656</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E72" s="2">
         <v>0.47986111111111113</v>
@@ -1862,16 +1862,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C73" s="1">
         <v>43656</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E73" s="2">
         <v>0.51666666666666672</v>
@@ -1882,16 +1882,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C74" s="1">
         <v>43656</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E74" s="2">
         <v>0.5541666666666667</v>
@@ -1902,16 +1902,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C75" s="1">
         <v>43656</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E75" s="2">
         <v>0.60555555555555551</v>
@@ -1922,16 +1922,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C76" s="1">
         <v>43656</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E76" s="2">
         <v>0.63680555555555551</v>
@@ -1942,16 +1942,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C77" s="1">
         <v>43656</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E77" s="2">
         <v>0.69027777777777777</v>
@@ -1962,16 +1962,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>43656</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E78" s="2">
         <v>0.73819444444444438</v>
@@ -1982,16 +1982,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C79" s="1">
         <v>43656</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E79" s="2">
         <v>0.74930555555555556</v>
@@ -1999,16 +1999,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C80" s="1">
         <v>43657</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E80" s="2">
         <v>0.40069444444444446</v>
@@ -2019,16 +2019,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C81" s="1">
         <v>43657</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E81" s="2">
         <v>0.41319444444444442</v>
@@ -2039,16 +2039,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C82" s="1">
         <v>43657</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E82" s="2">
         <v>0.43958333333333338</v>
@@ -2059,16 +2059,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C83" s="1">
         <v>43657</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E83" s="2">
         <v>0.4770833333333333</v>
@@ -2079,16 +2079,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C84" s="1">
         <v>43657</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E84" s="2">
         <v>0.50208333333333333</v>
@@ -2099,16 +2099,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C85" s="1">
         <v>43657</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E85" s="2">
         <v>0.55347222222222225</v>
@@ -2119,16 +2119,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C86" s="1">
         <v>43657</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E86" s="2">
         <v>0.59722222222222221</v>
@@ -2139,16 +2139,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1">
         <v>43657</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E87" s="2">
         <v>0.65625</v>
@@ -2159,16 +2159,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C88" s="1">
         <v>43657</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E88" s="2">
         <v>0.70416666666666661</v>
@@ -2179,16 +2179,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C89" s="1">
         <v>43657</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E89" s="2">
         <v>0.74444444444444446</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C90" s="1">
         <v>43658</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E90" s="2">
         <v>0.37708333333333338</v>
@@ -2219,16 +2219,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C91" s="1">
         <v>43658</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E91" s="2">
         <v>0.38958333333333334</v>
@@ -2239,16 +2239,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C92" s="1">
         <v>43658</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E92" s="2">
         <v>0.41666666666666669</v>
@@ -2259,16 +2259,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C93" s="1">
         <v>43658</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E93" s="2">
         <v>0.46111111111111108</v>
@@ -2279,16 +2279,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C94" s="1">
         <v>43658</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E94" s="2">
         <v>0.48819444444444443</v>
@@ -2299,16 +2299,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C95" s="1">
         <v>43658</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E95" s="2">
         <v>0.52777777777777779</v>
@@ -2319,16 +2319,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C96" s="1">
         <v>43658</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E96" s="2">
         <v>0.56527777777777777</v>
@@ -2339,16 +2339,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C97" s="1">
         <v>43658</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E97" s="2">
         <v>0.60625000000000007</v>
@@ -2359,16 +2359,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C98" s="1">
         <v>43658</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E98" s="2">
         <v>0.65208333333333335</v>
@@ -2379,16 +2379,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C99" s="1">
         <v>43658</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E99" s="2">
         <v>0.68958333333333333</v>
@@ -2399,58 +2399,58 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C100" s="1">
         <v>43659</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C101" s="1">
         <v>43660</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1">
         <v>43661</v>
       </c>
       <c r="D102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C103" s="1">
         <v>43662</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E103" s="2">
         <v>0.37847222222222227</v>
@@ -2461,16 +2461,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C104" s="1">
         <v>43662</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E104" s="2">
         <v>0.39652777777777781</v>
@@ -2481,16 +2481,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C105" s="1">
         <v>43662</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E105" s="2">
         <v>0.4465277777777778</v>
@@ -2501,16 +2501,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C106" s="1">
         <v>43662</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E106" s="2">
         <v>0.46249999999999997</v>
@@ -2521,16 +2521,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C107" s="1">
         <v>43662</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E107" s="2">
         <v>0.49861111111111112</v>
@@ -2541,16 +2541,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C108" s="1">
         <v>43662</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E108" s="2">
         <v>0.5708333333333333</v>
@@ -2561,16 +2561,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C109" s="1">
         <v>43662</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E109" s="2">
         <v>0.61249999999999993</v>
@@ -2581,16 +2581,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C110" s="1">
         <v>43662</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E110" s="2">
         <v>0.64652777777777781</v>
@@ -2601,16 +2601,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C111" s="1">
         <v>43662</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E111" s="2">
         <v>0.69444444444444453</v>
@@ -2621,16 +2621,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C112" s="1">
         <v>43662</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E112" s="2">
         <v>0.7319444444444444</v>
@@ -2641,16 +2641,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C113" s="1">
         <v>43662</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E113" s="2">
         <v>0.75069444444444444</v>
@@ -2658,16 +2658,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C114" s="1">
         <v>43663</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E114" s="2">
         <v>0.37638888888888888</v>
@@ -2678,16 +2678,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C115" s="1">
         <v>43663</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E115" s="2">
         <v>0.39166666666666666</v>
@@ -2698,16 +2698,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C116" s="1">
         <v>43663</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E116" s="2">
         <v>0.4368055555555555</v>
@@ -2718,16 +2718,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C117" s="1">
         <v>43663</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E117" s="2">
         <v>0.48472222222222222</v>
@@ -2738,16 +2738,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C118" s="1">
         <v>43663</v>
       </c>
       <c r="D118" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E118" s="2">
         <v>0.52500000000000002</v>
@@ -2758,16 +2758,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C119" s="1">
         <v>43663</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E119" s="2">
         <v>0.57013888888888886</v>
@@ -2778,16 +2778,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C120" s="1">
         <v>43663</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E120" s="2">
         <v>0.6333333333333333</v>
@@ -2798,16 +2798,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C121" s="1">
         <v>43663</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E121" s="2">
         <v>0.7006944444444444</v>
@@ -2818,16 +2818,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C122" s="1">
         <v>43664</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E122" s="2">
         <v>0.37638888888888888</v>
@@ -2838,16 +2838,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C123" s="1">
         <v>43664</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E123" s="2">
         <v>0.39305555555555555</v>
@@ -2858,16 +2858,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C124" s="1">
         <v>43664</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E124" s="2">
         <v>0.43124999999999997</v>
@@ -2878,16 +2878,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C125" s="1">
         <v>43664</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E125" s="2">
         <v>0.46597222222222223</v>
@@ -2898,16 +2898,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C126" s="1">
         <v>43664</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E126" s="2">
         <v>0.50624999999999998</v>
@@ -2918,16 +2918,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C127" s="1">
         <v>43664</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E127" s="2">
         <v>0.54722222222222217</v>
@@ -2938,16 +2938,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C128" s="1">
         <v>43664</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E128" s="2">
         <v>0.60069444444444442</v>
@@ -2958,16 +2958,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C129" s="1">
         <v>43664</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E129" s="2">
         <v>0.63402777777777775</v>
@@ -2978,16 +2978,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C130" s="1">
         <v>43664</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E130" s="2">
         <v>0.6430555555555556</v>
@@ -2998,16 +2998,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C131" s="1">
         <v>43664</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E131" s="2">
         <v>0.69305555555555554</v>
@@ -3018,16 +3018,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C132" s="1">
         <v>43664</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E132" s="2">
         <v>0.74375000000000002</v>
@@ -3038,16 +3038,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C133" s="1">
         <v>43664</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E133" s="2">
         <v>0.74791666666666667</v>
@@ -3055,16 +3055,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C134" s="1">
         <v>43665</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E134" s="2">
         <v>0.37638888888888888</v>
@@ -3075,16 +3075,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C135" s="1">
         <v>43665</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E135" s="2">
         <v>0.39374999999999999</v>
@@ -3095,16 +3095,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C136" s="1">
         <v>43665</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E136" s="2">
         <v>0.42777777777777781</v>
@@ -3115,16 +3115,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C137" s="1">
         <v>43665</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E137" s="2">
         <v>0.45277777777777778</v>
@@ -3135,16 +3135,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C138" s="1">
         <v>43665</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E138" s="2">
         <v>0.47361111111111115</v>
@@ -3155,16 +3155,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C139" s="1">
         <v>43665</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E139" s="2">
         <v>0.5229166666666667</v>
@@ -3175,16 +3175,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C140" s="1">
         <v>43665</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E140" s="2">
         <v>0.56666666666666665</v>
@@ -3195,16 +3195,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C141" s="1">
         <v>43665</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E141" s="2">
         <v>0.59236111111111112</v>
@@ -3215,16 +3215,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C142" s="1">
         <v>43665</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E142" s="2">
         <v>0.62222222222222223</v>
@@ -3235,16 +3235,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C143" s="1">
         <v>43665</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E143" s="2">
         <v>0.70486111111111116</v>
@@ -3255,16 +3255,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C144" s="1">
         <v>43665</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E144" s="2">
         <v>0.73819444444444438</v>
@@ -3275,16 +3275,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C145" s="1">
         <v>43665</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E145" s="2">
         <v>0.74652777777777779</v>
@@ -3292,44 +3292,44 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C146" s="1">
         <v>43666</v>
       </c>
       <c r="D146" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C147" s="1">
         <v>43667</v>
       </c>
       <c r="D147" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C148" s="1">
         <v>43668</v>
       </c>
       <c r="D148" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E148" s="2">
         <v>0.38958333333333334</v>
@@ -3340,16 +3340,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C149" s="1">
         <v>43668</v>
       </c>
       <c r="D149" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E149" s="2">
         <v>0.4055555555555555</v>
@@ -3360,16 +3360,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C150" s="1">
         <v>43668</v>
       </c>
       <c r="D150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E150" s="2">
         <v>0.43611111111111112</v>
@@ -3380,16 +3380,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C151" s="1">
         <v>43668</v>
       </c>
       <c r="D151" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E151" s="2">
         <v>0.48055555555555557</v>
@@ -3400,16 +3400,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C152" s="1">
         <v>43668</v>
       </c>
       <c r="D152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E152" s="2">
         <v>0.5</v>
@@ -3420,16 +3420,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C153" s="1">
         <v>43668</v>
       </c>
       <c r="D153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E153" s="2">
         <v>0.61527777777777781</v>
@@ -3440,16 +3440,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C154" s="1">
         <v>43668</v>
       </c>
       <c r="D154" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E154" s="2">
         <v>0.66805555555555562</v>
@@ -3460,16 +3460,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C155" s="1">
         <v>43668</v>
       </c>
       <c r="D155" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E155" s="2">
         <v>0.69305555555555554</v>
@@ -3480,16 +3480,16 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C156" s="1">
         <v>43668</v>
       </c>
       <c r="D156" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E156" s="2">
         <v>0.74861111111111101</v>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C157" s="1">
         <v>43669</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E157" s="2">
         <v>0.38125000000000003</v>
@@ -3517,16 +3517,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C158" s="1">
         <v>43669</v>
       </c>
       <c r="D158" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E158" s="2">
         <v>0.40208333333333335</v>
@@ -3537,16 +3537,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C159" s="1">
         <v>43669</v>
       </c>
       <c r="D159" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E159" s="2">
         <v>0.43333333333333335</v>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C160" s="1">
         <v>43669</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E160" s="2">
         <v>0.47569444444444442</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C161" s="1">
         <v>43669</v>
       </c>
       <c r="D161" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E161" s="2">
         <v>0.54652777777777783</v>
@@ -3597,16 +3597,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C162" s="1">
         <v>43669</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E162" s="2">
         <v>0.63611111111111118</v>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C163" s="1">
         <v>43669</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E163" s="2">
         <v>0.66319444444444442</v>
@@ -3637,16 +3637,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C164" s="1">
         <v>43669</v>
       </c>
       <c r="D164" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E164" s="2">
         <v>0.71736111111111101</v>
@@ -3657,16 +3657,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C165" s="1">
         <v>43670</v>
       </c>
       <c r="D165" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E165" s="2">
         <v>0.39583333333333331</v>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C166" s="1">
         <v>43670</v>
       </c>
       <c r="D166" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E166" s="2">
         <v>0.41875000000000001</v>
@@ -3697,16 +3697,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C167" s="1">
         <v>43670</v>
       </c>
       <c r="D167" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E167" s="2">
         <v>0.46111111111111108</v>
@@ -3717,16 +3717,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C168" s="1">
         <v>43670</v>
       </c>
       <c r="D168" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E168" s="2">
         <v>0.49305555555555558</v>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C169" s="1">
         <v>43670</v>
       </c>
       <c r="D169" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E169" s="2">
         <v>0.53055555555555556</v>
@@ -3757,16 +3757,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C170" s="1">
         <v>43670</v>
       </c>
       <c r="D170" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E170" s="2">
         <v>0.58402777777777781</v>
@@ -3777,16 +3777,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C171" s="1">
         <v>43670</v>
       </c>
       <c r="D171" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E171" s="2">
         <v>0.62222222222222223</v>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C172" s="1">
         <v>43670</v>
       </c>
       <c r="D172" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E172" s="2">
         <v>0.66736111111111107</v>
@@ -3817,16 +3817,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C173" s="1">
         <v>43670</v>
       </c>
       <c r="D173" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E173" s="2">
         <v>0.67083333333333339</v>
@@ -3834,30 +3834,30 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C174" s="1">
         <v>43671</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C175" s="1">
         <v>43672</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E175" s="2">
         <v>0.38263888888888892</v>
@@ -3868,16 +3868,16 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C176" s="1">
         <v>43672</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E176" s="2">
         <v>0.40069444444444446</v>
@@ -3888,16 +3888,16 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C177" s="1">
         <v>43672</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E177" s="2">
         <v>0.44305555555555554</v>
@@ -3908,16 +3908,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C178" s="1">
         <v>43672</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E178" s="2">
         <v>0.47500000000000003</v>
@@ -3928,16 +3928,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C179" s="1">
         <v>43672</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E179" s="2">
         <v>0.52222222222222225</v>
@@ -3948,16 +3948,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C180" s="1">
         <v>43672</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E180" s="2">
         <v>0.60069444444444442</v>
@@ -3968,16 +3968,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C181" s="1">
         <v>43672</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E181" s="2">
         <v>0.67847222222222225</v>
@@ -3988,44 +3988,44 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C182" s="1">
         <v>43673</v>
       </c>
       <c r="D182" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C183" s="1">
         <v>43674</v>
       </c>
       <c r="D183" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C184" s="1">
         <v>43675</v>
       </c>
       <c r="D184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E184" s="2">
         <v>0.3756944444444445</v>
@@ -4036,16 +4036,16 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C185" s="1">
         <v>43675</v>
       </c>
       <c r="D185" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E185" s="2">
         <v>0.4069444444444445</v>
@@ -4056,16 +4056,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C186" s="1">
         <v>43675</v>
       </c>
       <c r="D186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E186" s="2">
         <v>0.4604166666666667</v>
@@ -4076,16 +4076,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C187" s="1">
         <v>43675</v>
       </c>
       <c r="D187" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E187" s="2">
         <v>0.49027777777777781</v>
@@ -4096,16 +4096,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C188" s="1">
         <v>43675</v>
       </c>
       <c r="D188" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E188" s="2">
         <v>0.5395833333333333</v>
@@ -4116,16 +4116,16 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C189" s="1">
         <v>43675</v>
       </c>
       <c r="D189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E189" s="2">
         <v>0.57986111111111105</v>
@@ -4136,16 +4136,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C190" s="1">
         <v>43675</v>
       </c>
       <c r="D190" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E190" s="2">
         <v>0.64374999999999993</v>
@@ -4156,16 +4156,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C191" s="1">
         <v>43675</v>
       </c>
       <c r="D191" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E191" s="2">
         <v>0.69791666666666663</v>
@@ -4176,16 +4176,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C192" s="1">
         <v>43675</v>
       </c>
       <c r="D192" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E192" s="2">
         <v>0.75624999999999998</v>
@@ -4196,16 +4196,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C193" s="1">
         <v>43676</v>
       </c>
       <c r="D193" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E193" s="2">
         <v>0.3743055555555555</v>
@@ -4216,16 +4216,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B194" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C194" s="1">
         <v>43676</v>
       </c>
       <c r="D194" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E194" s="2">
         <v>0.38958333333333334</v>
@@ -4236,16 +4236,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C195" s="1">
         <v>43676</v>
       </c>
       <c r="D195" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E195" s="2">
         <v>0.43124999999999997</v>
@@ -4256,16 +4256,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C196" s="1">
         <v>43676</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E196" s="2">
         <v>0.45902777777777781</v>
@@ -4276,16 +4276,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B197" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C197" s="1">
         <v>43676</v>
       </c>
       <c r="D197" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E197" s="2">
         <v>0.53819444444444442</v>
@@ -4296,16 +4296,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C198" s="1">
         <v>43676</v>
       </c>
       <c r="D198" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E198" s="2">
         <v>0.59722222222222221</v>
@@ -4316,16 +4316,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C199" s="1">
         <v>43676</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E199" s="2">
         <v>0.66111111111111109</v>
@@ -4336,16 +4336,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C200" s="1">
         <v>43676</v>
       </c>
       <c r="D200" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E200" s="2">
         <v>0.68680555555555556</v>
@@ -4356,16 +4356,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C201" s="1">
         <v>43676</v>
       </c>
       <c r="D201" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E201" s="2">
         <v>0.7368055555555556</v>
@@ -4376,30 +4376,30 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C202" s="1">
         <v>43677</v>
       </c>
       <c r="D202" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C203" s="1">
         <v>43678</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E203" s="2">
         <v>0.41319444444444442</v>
@@ -4410,16 +4410,16 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C204" s="1">
         <v>43678</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E204" s="2">
         <v>0.43055555555555558</v>
@@ -4430,16 +4430,16 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C205" s="1">
         <v>43678</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E205" s="2">
         <v>0.46249999999999997</v>
@@ -4447,16 +4447,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B206" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C206" s="1">
         <v>43679</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E206" s="2">
         <v>0.38611111111111113</v>
@@ -4467,408 +4467,408 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B207" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C207" s="1">
         <v>43680</v>
       </c>
       <c r="D207" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B208" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C208" s="1">
         <v>43681</v>
       </c>
       <c r="D208" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C209" s="1">
         <v>43682</v>
       </c>
       <c r="D209" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C210" s="1">
         <v>43683</v>
       </c>
       <c r="D210" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C211" s="1">
         <v>43684</v>
       </c>
       <c r="D211" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C212" s="1">
         <v>43685</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C213" s="1">
         <v>43686</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B214" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C214" s="1">
         <v>43687</v>
       </c>
       <c r="D214" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C215" s="1">
         <v>43688</v>
       </c>
       <c r="D215" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C216" s="1">
         <v>43689</v>
       </c>
       <c r="D216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C217" s="1">
         <v>43690</v>
       </c>
       <c r="D217" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C218" s="1">
         <v>43691</v>
       </c>
       <c r="D218" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C219" s="1">
         <v>43692</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B220" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C220" s="1">
         <v>43693</v>
       </c>
       <c r="D220" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B221" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C221" s="1">
         <v>43694</v>
       </c>
       <c r="D221" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C222" s="1">
         <v>43695</v>
       </c>
       <c r="D222" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C223" s="1">
         <v>43696</v>
       </c>
       <c r="D223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C224" s="1">
         <v>43697</v>
       </c>
       <c r="D224" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C225" s="1">
         <v>43698</v>
       </c>
       <c r="D225" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B226" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C226" s="1">
         <v>43699</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B227" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C227" s="1">
         <v>43700</v>
       </c>
       <c r="D227" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B228" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C228" s="1">
         <v>43701</v>
       </c>
       <c r="D228" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B229" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C229" s="1">
         <v>43702</v>
       </c>
       <c r="D229" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C230" s="1">
         <v>43703</v>
       </c>
       <c r="D230" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C231" s="1">
         <v>43704</v>
       </c>
       <c r="D231" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C232" s="1">
         <v>43705</v>
       </c>
       <c r="D232" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C233" s="1">
         <v>43706</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B234" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C234" s="1">
         <v>43707</v>
       </c>
       <c r="D234" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C235" s="1">
         <v>43708</v>
       </c>
       <c r="D235" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Belgelerim\finartzfingerprint\FingerPrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C46F2D5-CD56-48D2-BC54-F806396F1448}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4D4B92-DB3B-4428-A3AE-547B72BA3214}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{1F5A0D05-5E1D-4137-A0D1-15D38892DB27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F5A0D05-5E1D-4137-A0D1-15D38892DB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,12 +50,6 @@
     <t>CIKIS</t>
   </si>
   <si>
-    <t>İSA YAKUP</t>
-  </si>
-  <si>
-    <t>AKSOY</t>
-  </si>
-  <si>
     <t>PAZARTESI</t>
   </si>
   <si>
@@ -75,6 +69,12 @@
   </si>
   <si>
     <t>PAZAR</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,16 +459,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>43647</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2">
         <v>0.3888888888888889</v>
@@ -479,16 +479,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>43647</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2">
         <v>0.40972222222222227</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>43647</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2">
         <v>0.4368055555555555</v>
@@ -520,16 +520,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>43647</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2">
         <v>0.47638888888888892</v>
@@ -540,16 +540,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>43647</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2">
         <v>0.53611111111111109</v>
@@ -560,16 +560,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>43647</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2">
         <v>0.58124999999999993</v>
@@ -580,16 +580,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>43647</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2">
         <v>0.6118055555555556</v>
@@ -600,16 +600,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>43647</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2">
         <v>0.65</v>
@@ -620,16 +620,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>43647</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2">
         <v>0.68263888888888891</v>
@@ -640,16 +640,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <v>43647</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2">
         <v>0.72986111111111107</v>
@@ -660,16 +660,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>43648</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2">
         <v>0.3756944444444445</v>
@@ -680,16 +680,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>43648</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2">
         <v>0.38750000000000001</v>
@@ -700,16 +700,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <v>43648</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14" s="2">
         <v>0.41875000000000001</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>43648</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2">
         <v>0.44097222222222227</v>
@@ -740,16 +740,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>43648</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="2">
         <v>0.4604166666666667</v>
@@ -760,16 +760,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>43648</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" s="2">
         <v>0.54027777777777775</v>
@@ -780,16 +780,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
         <v>43648</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" s="2">
         <v>0.57986111111111105</v>
@@ -800,16 +800,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <v>43648</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2">
         <v>0.63680555555555551</v>
@@ -820,16 +820,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1">
         <v>43648</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2">
         <v>0.67499999999999993</v>
@@ -840,16 +840,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1">
         <v>43648</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" s="2">
         <v>0.71319444444444446</v>
@@ -860,16 +860,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>43648</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" s="2">
         <v>0.74097222222222225</v>
@@ -880,16 +880,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1">
         <v>43649</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2">
         <v>0.37916666666666665</v>
@@ -900,16 +900,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1">
         <v>43649</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="2">
         <v>0.38750000000000001</v>
@@ -920,16 +920,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <v>43649</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="2">
         <v>0.44444444444444442</v>
@@ -940,16 +940,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1">
         <v>43649</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2">
         <v>0.46111111111111108</v>
@@ -960,16 +960,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1">
         <v>43649</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="2">
         <v>0.48819444444444443</v>
@@ -980,16 +980,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1">
         <v>43649</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="2">
         <v>0.52638888888888891</v>
@@ -1000,16 +1000,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1">
         <v>43649</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" s="2">
         <v>0.5493055555555556</v>
@@ -1020,16 +1020,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1">
         <v>43650</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2">
         <v>0.57361111111111118</v>
@@ -1040,16 +1040,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <v>43650</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2">
         <v>0.58680555555555558</v>
@@ -1060,16 +1060,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1">
         <v>43650</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2">
         <v>0.59930555555555554</v>
@@ -1080,16 +1080,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1">
         <v>43650</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2">
         <v>0.625</v>
@@ -1100,16 +1100,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1">
         <v>43650</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2">
         <v>0.64861111111111114</v>
@@ -1120,16 +1120,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1">
         <v>43650</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2">
         <v>0.73888888888888893</v>
@@ -1140,16 +1140,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1">
         <v>43650</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2">
         <v>0.75069444444444444</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1">
         <v>43651</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2">
         <v>0.41805555555555557</v>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1">
         <v>43651</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E38" s="2">
         <v>0.43472222222222223</v>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C39" s="1">
         <v>43651</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E39" s="2">
         <v>0.47083333333333338</v>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C40" s="1">
         <v>43651</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E40" s="2">
         <v>0.5493055555555556</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C41" s="1">
         <v>43651</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E41" s="2">
         <v>0.61041666666666672</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C42" s="1">
         <v>43651</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E42" s="2">
         <v>0.64930555555555558</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1">
         <v>43651</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E43" s="2">
         <v>0.67847222222222225</v>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C44" s="1">
         <v>43651</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E44" s="2">
         <v>0.7416666666666667</v>
@@ -1317,44 +1317,44 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C45" s="1">
         <v>43652</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C46" s="1">
         <v>43653</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C47" s="1">
         <v>43654</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E47" s="2">
         <v>0.37916666666666665</v>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C48" s="1">
         <v>43654</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E48" s="2">
         <v>0.3979166666666667</v>
@@ -1385,16 +1385,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C49" s="1">
         <v>43654</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E49" s="2">
         <v>0.43541666666666662</v>
@@ -1405,16 +1405,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C50" s="1">
         <v>43654</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E50" s="2">
         <v>0.46388888888888885</v>
@@ -1425,16 +1425,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C51" s="1">
         <v>43654</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E51" s="2">
         <v>0.49305555555555558</v>
@@ -1445,16 +1445,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C52" s="1">
         <v>43654</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E52" s="2">
         <v>0.52500000000000002</v>
@@ -1465,16 +1465,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C53" s="1">
         <v>43654</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E53" s="2">
         <v>0.56597222222222221</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C54" s="1">
         <v>43654</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E54" s="2">
         <v>0.62638888888888888</v>
@@ -1505,16 +1505,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C55" s="1">
         <v>43654</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E55" s="2">
         <v>0.66319444444444442</v>
@@ -1525,16 +1525,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C56" s="1">
         <v>43654</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E56" s="2">
         <v>0.71597222222222223</v>
@@ -1545,16 +1545,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C57" s="1">
         <v>43655</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E57" s="2">
         <v>0.37638888888888888</v>
@@ -1565,16 +1565,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C58" s="1">
         <v>43655</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E58" s="2">
         <v>0.39444444444444443</v>
@@ -1585,16 +1585,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C59" s="1">
         <v>43655</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E59" s="2">
         <v>0.4291666666666667</v>
@@ -1605,16 +1605,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C60" s="1">
         <v>43655</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E60" s="2">
         <v>0.45833333333333331</v>
@@ -1625,16 +1625,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C61" s="1">
         <v>43655</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E61" s="2">
         <v>0.52777777777777779</v>
@@ -1645,16 +1645,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C62" s="1">
         <v>43655</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E62" s="2">
         <v>0.55208333333333337</v>
@@ -1665,16 +1665,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C63" s="1">
         <v>43655</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E63" s="2">
         <v>0.59652777777777777</v>
@@ -1685,16 +1685,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C64" s="1">
         <v>43655</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E64" s="2">
         <v>0.6479166666666667</v>
@@ -1705,16 +1705,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C65" s="1">
         <v>43655</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E65" s="2">
         <v>0.68055555555555547</v>
@@ -1725,16 +1725,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C66" s="1">
         <v>43655</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E66" s="2">
         <v>0.71736111111111101</v>
@@ -1745,16 +1745,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C67" s="1">
         <v>43655</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E67" s="2">
         <v>0.74652777777777779</v>
@@ -1762,16 +1762,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C68" s="1">
         <v>43656</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E68" s="2">
         <v>0.375</v>
@@ -1782,16 +1782,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C69" s="1">
         <v>43656</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E69" s="2">
         <v>0.38750000000000001</v>
@@ -1802,16 +1802,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C70" s="1">
         <v>43656</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E70" s="2">
         <v>0.4152777777777778</v>
@@ -1822,16 +1822,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C71" s="1">
         <v>43656</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E71" s="2">
         <v>0.45208333333333334</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C72" s="1">
         <v>43656</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E72" s="2">
         <v>0.47986111111111113</v>
@@ -1862,16 +1862,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C73" s="1">
         <v>43656</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E73" s="2">
         <v>0.51666666666666672</v>
@@ -1882,16 +1882,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C74" s="1">
         <v>43656</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E74" s="2">
         <v>0.5541666666666667</v>
@@ -1902,16 +1902,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C75" s="1">
         <v>43656</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E75" s="2">
         <v>0.60555555555555551</v>
@@ -1922,16 +1922,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C76" s="1">
         <v>43656</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E76" s="2">
         <v>0.63680555555555551</v>
@@ -1942,16 +1942,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C77" s="1">
         <v>43656</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E77" s="2">
         <v>0.69027777777777777</v>
@@ -1962,16 +1962,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C78" s="1">
         <v>43656</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E78" s="2">
         <v>0.73819444444444438</v>
@@ -1982,16 +1982,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C79" s="1">
         <v>43656</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E79" s="2">
         <v>0.74930555555555556</v>
@@ -1999,16 +1999,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C80" s="1">
         <v>43657</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E80" s="2">
         <v>0.40069444444444446</v>
@@ -2019,16 +2019,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C81" s="1">
         <v>43657</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E81" s="2">
         <v>0.41319444444444442</v>
@@ -2039,16 +2039,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C82" s="1">
         <v>43657</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E82" s="2">
         <v>0.43958333333333338</v>
@@ -2059,16 +2059,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C83" s="1">
         <v>43657</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E83" s="2">
         <v>0.4770833333333333</v>
@@ -2079,16 +2079,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C84" s="1">
         <v>43657</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E84" s="2">
         <v>0.50208333333333333</v>
@@ -2099,16 +2099,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1">
         <v>43657</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E85" s="2">
         <v>0.55347222222222225</v>
@@ -2119,16 +2119,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C86" s="1">
         <v>43657</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E86" s="2">
         <v>0.59722222222222221</v>
@@ -2139,16 +2139,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C87" s="1">
         <v>43657</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E87" s="2">
         <v>0.65625</v>
@@ -2159,16 +2159,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C88" s="1">
         <v>43657</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E88" s="2">
         <v>0.70416666666666661</v>
@@ -2179,16 +2179,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C89" s="1">
         <v>43657</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E89" s="2">
         <v>0.74444444444444446</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C90" s="1">
         <v>43658</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E90" s="2">
         <v>0.37708333333333338</v>
@@ -2219,16 +2219,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C91" s="1">
         <v>43658</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E91" s="2">
         <v>0.38958333333333334</v>
@@ -2239,16 +2239,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C92" s="1">
         <v>43658</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E92" s="2">
         <v>0.41666666666666669</v>
@@ -2259,16 +2259,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C93" s="1">
         <v>43658</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E93" s="2">
         <v>0.46111111111111108</v>
@@ -2279,16 +2279,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C94" s="1">
         <v>43658</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E94" s="2">
         <v>0.48819444444444443</v>
@@ -2299,16 +2299,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C95" s="1">
         <v>43658</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E95" s="2">
         <v>0.52777777777777779</v>
@@ -2319,16 +2319,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C96" s="1">
         <v>43658</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E96" s="2">
         <v>0.56527777777777777</v>
@@ -2339,16 +2339,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C97" s="1">
         <v>43658</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E97" s="2">
         <v>0.60625000000000007</v>
@@ -2359,16 +2359,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C98" s="1">
         <v>43658</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E98" s="2">
         <v>0.65208333333333335</v>
@@ -2379,16 +2379,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C99" s="1">
         <v>43658</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E99" s="2">
         <v>0.68958333333333333</v>
@@ -2399,58 +2399,58 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1">
         <v>43659</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C101" s="1">
         <v>43660</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C102" s="1">
         <v>43661</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C103" s="1">
         <v>43662</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E103" s="2">
         <v>0.37847222222222227</v>
@@ -2461,16 +2461,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C104" s="1">
         <v>43662</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E104" s="2">
         <v>0.39652777777777781</v>
@@ -2481,16 +2481,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C105" s="1">
         <v>43662</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E105" s="2">
         <v>0.4465277777777778</v>
@@ -2501,16 +2501,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C106" s="1">
         <v>43662</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E106" s="2">
         <v>0.46249999999999997</v>
@@ -2521,16 +2521,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C107" s="1">
         <v>43662</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E107" s="2">
         <v>0.49861111111111112</v>
@@ -2541,16 +2541,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C108" s="1">
         <v>43662</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E108" s="2">
         <v>0.5708333333333333</v>
@@ -2561,16 +2561,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C109" s="1">
         <v>43662</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E109" s="2">
         <v>0.61249999999999993</v>
@@ -2581,16 +2581,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C110" s="1">
         <v>43662</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E110" s="2">
         <v>0.64652777777777781</v>
@@ -2601,16 +2601,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C111" s="1">
         <v>43662</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E111" s="2">
         <v>0.69444444444444453</v>
@@ -2621,16 +2621,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C112" s="1">
         <v>43662</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E112" s="2">
         <v>0.7319444444444444</v>
@@ -2641,16 +2641,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C113" s="1">
         <v>43662</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E113" s="2">
         <v>0.75069444444444444</v>
@@ -2658,16 +2658,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C114" s="1">
         <v>43663</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E114" s="2">
         <v>0.37638888888888888</v>
@@ -2678,16 +2678,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C115" s="1">
         <v>43663</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E115" s="2">
         <v>0.39166666666666666</v>
@@ -2698,16 +2698,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C116" s="1">
         <v>43663</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E116" s="2">
         <v>0.4368055555555555</v>
@@ -2718,16 +2718,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C117" s="1">
         <v>43663</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E117" s="2">
         <v>0.48472222222222222</v>
@@ -2738,16 +2738,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C118" s="1">
         <v>43663</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E118" s="2">
         <v>0.52500000000000002</v>
@@ -2758,16 +2758,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C119" s="1">
         <v>43663</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E119" s="2">
         <v>0.57013888888888886</v>
@@ -2778,16 +2778,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C120" s="1">
         <v>43663</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E120" s="2">
         <v>0.6333333333333333</v>
@@ -2798,16 +2798,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C121" s="1">
         <v>43663</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E121" s="2">
         <v>0.7006944444444444</v>
@@ -2818,16 +2818,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C122" s="1">
         <v>43664</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E122" s="2">
         <v>0.37638888888888888</v>
@@ -2838,16 +2838,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C123" s="1">
         <v>43664</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E123" s="2">
         <v>0.39305555555555555</v>
@@ -2858,16 +2858,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C124" s="1">
         <v>43664</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E124" s="2">
         <v>0.43124999999999997</v>
@@ -2878,16 +2878,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C125" s="1">
         <v>43664</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E125" s="2">
         <v>0.46597222222222223</v>
@@ -2898,16 +2898,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C126" s="1">
         <v>43664</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E126" s="2">
         <v>0.50624999999999998</v>
@@ -2918,16 +2918,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C127" s="1">
         <v>43664</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E127" s="2">
         <v>0.54722222222222217</v>
@@ -2938,16 +2938,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C128" s="1">
         <v>43664</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E128" s="2">
         <v>0.60069444444444442</v>
@@ -2958,16 +2958,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C129" s="1">
         <v>43664</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E129" s="2">
         <v>0.63402777777777775</v>
@@ -2978,16 +2978,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C130" s="1">
         <v>43664</v>
       </c>
       <c r="D130" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E130" s="2">
         <v>0.6430555555555556</v>
@@ -2998,16 +2998,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C131" s="1">
         <v>43664</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E131" s="2">
         <v>0.69305555555555554</v>
@@ -3018,16 +3018,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C132" s="1">
         <v>43664</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E132" s="2">
         <v>0.74375000000000002</v>
@@ -3038,16 +3038,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C133" s="1">
         <v>43664</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E133" s="2">
         <v>0.74791666666666667</v>
@@ -3055,16 +3055,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C134" s="1">
         <v>43665</v>
       </c>
       <c r="D134" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E134" s="2">
         <v>0.37638888888888888</v>
@@ -3075,16 +3075,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C135" s="1">
         <v>43665</v>
       </c>
       <c r="D135" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E135" s="2">
         <v>0.39374999999999999</v>
@@ -3095,16 +3095,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C136" s="1">
         <v>43665</v>
       </c>
       <c r="D136" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E136" s="2">
         <v>0.42777777777777781</v>
@@ -3115,16 +3115,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C137" s="1">
         <v>43665</v>
       </c>
       <c r="D137" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E137" s="2">
         <v>0.45277777777777778</v>
@@ -3135,16 +3135,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C138" s="1">
         <v>43665</v>
       </c>
       <c r="D138" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E138" s="2">
         <v>0.47361111111111115</v>
@@ -3155,16 +3155,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C139" s="1">
         <v>43665</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E139" s="2">
         <v>0.5229166666666667</v>
@@ -3175,16 +3175,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C140" s="1">
         <v>43665</v>
       </c>
       <c r="D140" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E140" s="2">
         <v>0.56666666666666665</v>
@@ -3195,16 +3195,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C141" s="1">
         <v>43665</v>
       </c>
       <c r="D141" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E141" s="2">
         <v>0.59236111111111112</v>
@@ -3215,16 +3215,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C142" s="1">
         <v>43665</v>
       </c>
       <c r="D142" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E142" s="2">
         <v>0.62222222222222223</v>
@@ -3235,16 +3235,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C143" s="1">
         <v>43665</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E143" s="2">
         <v>0.70486111111111116</v>
@@ -3255,16 +3255,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C144" s="1">
         <v>43665</v>
       </c>
       <c r="D144" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E144" s="2">
         <v>0.73819444444444438</v>
@@ -3275,16 +3275,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C145" s="1">
         <v>43665</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E145" s="2">
         <v>0.74652777777777779</v>
@@ -3292,44 +3292,44 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C146" s="1">
         <v>43666</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C147" s="1">
         <v>43667</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C148" s="1">
         <v>43668</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E148" s="2">
         <v>0.38958333333333334</v>
@@ -3340,16 +3340,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C149" s="1">
         <v>43668</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E149" s="2">
         <v>0.4055555555555555</v>
@@ -3360,16 +3360,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C150" s="1">
         <v>43668</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E150" s="2">
         <v>0.43611111111111112</v>
@@ -3380,16 +3380,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C151" s="1">
         <v>43668</v>
       </c>
       <c r="D151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E151" s="2">
         <v>0.48055555555555557</v>
@@ -3400,16 +3400,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C152" s="1">
         <v>43668</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E152" s="2">
         <v>0.5</v>
@@ -3420,16 +3420,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C153" s="1">
         <v>43668</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E153" s="2">
         <v>0.61527777777777781</v>
@@ -3440,16 +3440,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C154" s="1">
         <v>43668</v>
       </c>
       <c r="D154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E154" s="2">
         <v>0.66805555555555562</v>
@@ -3460,16 +3460,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C155" s="1">
         <v>43668</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E155" s="2">
         <v>0.69305555555555554</v>
@@ -3480,16 +3480,16 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C156" s="1">
         <v>43668</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E156" s="2">
         <v>0.74861111111111101</v>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C157" s="1">
         <v>43669</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E157" s="2">
         <v>0.38125000000000003</v>
@@ -3517,16 +3517,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C158" s="1">
         <v>43669</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E158" s="2">
         <v>0.40208333333333335</v>
@@ -3537,16 +3537,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C159" s="1">
         <v>43669</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E159" s="2">
         <v>0.43333333333333335</v>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C160" s="1">
         <v>43669</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E160" s="2">
         <v>0.47569444444444442</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C161" s="1">
         <v>43669</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E161" s="2">
         <v>0.54652777777777783</v>
@@ -3597,16 +3597,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C162" s="1">
         <v>43669</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E162" s="2">
         <v>0.63611111111111118</v>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C163" s="1">
         <v>43669</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E163" s="2">
         <v>0.66319444444444442</v>
@@ -3637,16 +3637,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C164" s="1">
         <v>43669</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E164" s="2">
         <v>0.71736111111111101</v>
@@ -3657,16 +3657,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C165" s="1">
         <v>43670</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E165" s="2">
         <v>0.39583333333333331</v>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C166" s="1">
         <v>43670</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E166" s="2">
         <v>0.41875000000000001</v>
@@ -3697,16 +3697,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C167" s="1">
         <v>43670</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E167" s="2">
         <v>0.46111111111111108</v>
@@ -3717,16 +3717,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C168" s="1">
         <v>43670</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E168" s="2">
         <v>0.49305555555555558</v>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C169" s="1">
         <v>43670</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E169" s="2">
         <v>0.53055555555555556</v>
@@ -3757,16 +3757,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C170" s="1">
         <v>43670</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E170" s="2">
         <v>0.58402777777777781</v>
@@ -3777,16 +3777,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C171" s="1">
         <v>43670</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E171" s="2">
         <v>0.62222222222222223</v>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C172" s="1">
         <v>43670</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E172" s="2">
         <v>0.66736111111111107</v>
@@ -3817,16 +3817,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C173" s="1">
         <v>43670</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E173" s="2">
         <v>0.67083333333333339</v>
@@ -3834,30 +3834,30 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C174" s="1">
         <v>43671</v>
       </c>
       <c r="D174" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C175" s="1">
         <v>43672</v>
       </c>
       <c r="D175" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E175" s="2">
         <v>0.38263888888888892</v>
@@ -3868,16 +3868,16 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C176" s="1">
         <v>43672</v>
       </c>
       <c r="D176" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E176" s="2">
         <v>0.40069444444444446</v>
@@ -3888,16 +3888,16 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C177" s="1">
         <v>43672</v>
       </c>
       <c r="D177" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E177" s="2">
         <v>0.44305555555555554</v>
@@ -3908,16 +3908,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C178" s="1">
         <v>43672</v>
       </c>
       <c r="D178" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E178" s="2">
         <v>0.47500000000000003</v>
@@ -3928,16 +3928,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C179" s="1">
         <v>43672</v>
       </c>
       <c r="D179" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E179" s="2">
         <v>0.52222222222222225</v>
@@ -3948,16 +3948,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C180" s="1">
         <v>43672</v>
       </c>
       <c r="D180" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E180" s="2">
         <v>0.60069444444444442</v>
@@ -3968,16 +3968,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C181" s="1">
         <v>43672</v>
       </c>
       <c r="D181" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E181" s="2">
         <v>0.67847222222222225</v>
@@ -3988,44 +3988,44 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C182" s="1">
         <v>43673</v>
       </c>
       <c r="D182" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C183" s="1">
         <v>43674</v>
       </c>
       <c r="D183" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C184" s="1">
         <v>43675</v>
       </c>
       <c r="D184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E184" s="2">
         <v>0.3756944444444445</v>
@@ -4036,16 +4036,16 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C185" s="1">
         <v>43675</v>
       </c>
       <c r="D185" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E185" s="2">
         <v>0.4069444444444445</v>
@@ -4056,16 +4056,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C186" s="1">
         <v>43675</v>
       </c>
       <c r="D186" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E186" s="2">
         <v>0.4604166666666667</v>
@@ -4076,16 +4076,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C187" s="1">
         <v>43675</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E187" s="2">
         <v>0.49027777777777781</v>
@@ -4096,16 +4096,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C188" s="1">
         <v>43675</v>
       </c>
       <c r="D188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E188" s="2">
         <v>0.5395833333333333</v>
@@ -4116,16 +4116,16 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C189" s="1">
         <v>43675</v>
       </c>
       <c r="D189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E189" s="2">
         <v>0.57986111111111105</v>
@@ -4136,16 +4136,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C190" s="1">
         <v>43675</v>
       </c>
       <c r="D190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E190" s="2">
         <v>0.64374999999999993</v>
@@ -4156,16 +4156,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C191" s="1">
         <v>43675</v>
       </c>
       <c r="D191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E191" s="2">
         <v>0.69791666666666663</v>
@@ -4176,16 +4176,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C192" s="1">
         <v>43675</v>
       </c>
       <c r="D192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E192" s="2">
         <v>0.75624999999999998</v>
@@ -4196,16 +4196,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C193" s="1">
         <v>43676</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E193" s="2">
         <v>0.3743055555555555</v>
@@ -4216,16 +4216,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C194" s="1">
         <v>43676</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E194" s="2">
         <v>0.38958333333333334</v>
@@ -4236,16 +4236,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C195" s="1">
         <v>43676</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E195" s="2">
         <v>0.43124999999999997</v>
@@ -4256,16 +4256,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C196" s="1">
         <v>43676</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E196" s="2">
         <v>0.45902777777777781</v>
@@ -4276,16 +4276,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C197" s="1">
         <v>43676</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E197" s="2">
         <v>0.53819444444444442</v>
@@ -4296,16 +4296,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C198" s="1">
         <v>43676</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E198" s="2">
         <v>0.59722222222222221</v>
@@ -4316,16 +4316,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C199" s="1">
         <v>43676</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E199" s="2">
         <v>0.66111111111111109</v>
@@ -4336,16 +4336,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C200" s="1">
         <v>43676</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E200" s="2">
         <v>0.68680555555555556</v>
@@ -4356,16 +4356,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C201" s="1">
         <v>43676</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E201" s="2">
         <v>0.7368055555555556</v>
@@ -4376,30 +4376,30 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C202" s="1">
         <v>43677</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C203" s="1">
         <v>43678</v>
       </c>
       <c r="D203" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E203" s="2">
         <v>0.41319444444444442</v>
@@ -4410,16 +4410,16 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C204" s="1">
         <v>43678</v>
       </c>
       <c r="D204" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E204" s="2">
         <v>0.43055555555555558</v>
@@ -4430,16 +4430,16 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C205" s="1">
         <v>43678</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E205" s="2">
         <v>0.46249999999999997</v>
@@ -4447,16 +4447,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C206" s="1">
         <v>43679</v>
       </c>
       <c r="D206" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E206" s="2">
         <v>0.38611111111111113</v>
@@ -4467,408 +4467,408 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C207" s="1">
         <v>43680</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C208" s="1">
         <v>43681</v>
       </c>
       <c r="D208" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C209" s="1">
         <v>43682</v>
       </c>
       <c r="D209" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C210" s="1">
         <v>43683</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C211" s="1">
         <v>43684</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C212" s="1">
         <v>43685</v>
       </c>
       <c r="D212" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C213" s="1">
         <v>43686</v>
       </c>
       <c r="D213" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C214" s="1">
         <v>43687</v>
       </c>
       <c r="D214" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C215" s="1">
         <v>43688</v>
       </c>
       <c r="D215" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C216" s="1">
         <v>43689</v>
       </c>
       <c r="D216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C217" s="1">
         <v>43690</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C218" s="1">
         <v>43691</v>
       </c>
       <c r="D218" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C219" s="1">
         <v>43692</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C220" s="1">
         <v>43693</v>
       </c>
       <c r="D220" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C221" s="1">
         <v>43694</v>
       </c>
       <c r="D221" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C222" s="1">
         <v>43695</v>
       </c>
       <c r="D222" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C223" s="1">
         <v>43696</v>
       </c>
       <c r="D223" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C224" s="1">
         <v>43697</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C225" s="1">
         <v>43698</v>
       </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C226" s="1">
         <v>43699</v>
       </c>
       <c r="D226" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C227" s="1">
         <v>43700</v>
       </c>
       <c r="D227" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C228" s="1">
         <v>43701</v>
       </c>
       <c r="D228" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C229" s="1">
         <v>43702</v>
       </c>
       <c r="D229" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C230" s="1">
         <v>43703</v>
       </c>
       <c r="D230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C231" s="1">
         <v>43704</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C232" s="1">
         <v>43705</v>
       </c>
       <c r="D232" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C233" s="1">
         <v>43706</v>
       </c>
       <c r="D233" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C234" s="1">
         <v>43707</v>
       </c>
       <c r="D234" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C235" s="1">
         <v>43708</v>
       </c>
       <c r="D235" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
